--- a/510 実験データ.xlsx
+++ b/510 実験データ.xlsx
@@ -9,12 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7875" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7875"/>
   </bookViews>
   <sheets>
     <sheet name="図3" sheetId="1" r:id="rId1"/>
     <sheet name="図4" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="結果" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="23">
   <si>
     <t>基本周波数 f [Hz]</t>
     <rPh sb="0" eb="2">
@@ -100,32 +100,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>弦1 基本周波数 f [Hz]</t>
-    <rPh sb="0" eb="1">
-      <t>ゲン</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>キホン</t>
-    </rPh>
-    <rPh sb="5" eb="8">
-      <t>シュウハスウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>弦2 基本周波数 f [Hz]</t>
-    <rPh sb="0" eb="1">
-      <t>ゲン</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>キホン</t>
-    </rPh>
-    <rPh sb="5" eb="8">
-      <t>シュウハスウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>弦1</t>
     <rPh sb="0" eb="1">
       <t>ゲン</t>
@@ -213,15 +187,61 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>Σ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>弦2 基本周波数 f_2 [Hz]</t>
+    <rPh sb="0" eb="1">
+      <t>ゲン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>キホン</t>
+    </rPh>
+    <rPh sb="5" eb="8">
+      <t>シュウハスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>弦1 基本周波数 f_1 [Hz]</t>
+    <rPh sb="0" eb="1">
+      <t>ゲン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>キホン</t>
+    </rPh>
+    <rPh sb="5" eb="8">
+      <t>シュウハスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>f_1*T^1/2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>f_2*T^1/2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(1/L)^2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>f/L</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="3">
-    <numFmt numFmtId="177" formatCode="#,##0.000_ "/>
-    <numFmt numFmtId="178" formatCode="0.00_ "/>
-    <numFmt numFmtId="179" formatCode="0.0_ "/>
+    <numFmt numFmtId="176" formatCode="#,##0.000_ "/>
+    <numFmt numFmtId="177" formatCode="0.00_ "/>
+    <numFmt numFmtId="178" formatCode="0.0_ "/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -248,7 +268,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -271,23 +291,39 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
@@ -296,13 +332,25 @@
     <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -415,7 +463,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>図3!$C$3</c:f>
+              <c:f>図3!$D$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -512,7 +560,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>図3!$B$4:$B$8</c:f>
+              <c:f>図3!$C$4:$C$8</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
                 <c:ptCount val="5"/>
@@ -536,7 +584,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>図3!$C$4:$C$8</c:f>
+              <c:f>図3!$D$4:$D$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -953,11 +1001,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>図4!$D$2</c:f>
+              <c:f>図4!$E$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>弦1 基本周波数 f [Hz]</c:v>
+                  <c:v>弦1 基本周波数 f_1 [Hz]</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1036,7 +1084,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>図4!$C$3:$C$7</c:f>
+              <c:f>図4!$D$3:$D$7</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
                 <c:ptCount val="5"/>
@@ -1060,7 +1108,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>図4!$D$3:$D$7</c:f>
+              <c:f>図4!$E$3:$E$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1094,11 +1142,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>図4!$E$2</c:f>
+              <c:f>図4!$F$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>弦2 基本周波数 f [Hz]</c:v>
+                  <c:v>弦2 基本周波数 f_2 [Hz]</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1177,7 +1225,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>図4!$C$3:$C$7</c:f>
+              <c:f>図4!$D$3:$D$7</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
                 <c:ptCount val="5"/>
@@ -1201,7 +1249,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>図4!$E$3:$E$7</c:f>
+              <c:f>図4!$F$3:$F$7</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
                 <c:ptCount val="5"/>
@@ -2685,15 +2733,15 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>242887</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>119062</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>1023937</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>4762</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -2726,15 +2774,15 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>204787</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>4762</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>442912</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>128587</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -3060,123 +3108,191 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="A1:C8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="3" width="24.875" customWidth="1"/>
+    <col min="2" max="4" width="24.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="B1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="3">
+      <c r="C1" s="3">
         <v>1.8</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="B2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="3">
+      <c r="C2" s="3">
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A3" s="3" t="s">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="B3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="C3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="D3" s="3" t="s">
         <v>0</v>
       </c>
+      <c r="E3" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>22</v>
+      </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A4" s="4">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="B4" s="4">
         <v>0.62</v>
       </c>
-      <c r="B4" s="5">
-        <f>1/A4</f>
+      <c r="C4" s="5">
+        <f>1/B4</f>
         <v>1.6129032258064517</v>
       </c>
-      <c r="C4" s="3">
+      <c r="D4" s="3">
         <v>209.36</v>
       </c>
+      <c r="E4" s="3">
+        <f>POWER(C4,2)</f>
+        <v>2.6014568158168578</v>
+      </c>
+      <c r="F4" s="3">
+        <f>D4*C4</f>
+        <v>337.67741935483878</v>
+      </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A5" s="4">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="B5" s="4">
         <v>0.5</v>
       </c>
-      <c r="B5" s="5">
-        <f t="shared" ref="B5:B8" si="0">1/A5</f>
+      <c r="C5" s="5">
+        <f t="shared" ref="C5:C8" si="0">1/B5</f>
         <v>2</v>
       </c>
-      <c r="C5" s="3">
+      <c r="D5" s="3">
         <v>258.81</v>
       </c>
+      <c r="E5" s="3">
+        <f t="shared" ref="E5:E8" si="1">POWER(C5,2)</f>
+        <v>4</v>
+      </c>
+      <c r="F5" s="3">
+        <f t="shared" ref="F5:F8" si="2">D5*C5</f>
+        <v>517.62</v>
+      </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A6" s="4">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="B6" s="4">
         <v>0.42</v>
       </c>
-      <c r="B6" s="5">
+      <c r="C6" s="5">
         <f t="shared" si="0"/>
         <v>2.3809523809523809</v>
       </c>
-      <c r="C6" s="3">
+      <c r="D6" s="3">
         <v>308.64</v>
       </c>
+      <c r="E6" s="3">
+        <f t="shared" si="1"/>
+        <v>5.6689342403628116</v>
+      </c>
+      <c r="F6" s="3">
+        <f t="shared" si="2"/>
+        <v>734.85714285714278</v>
+      </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A7" s="4">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="B7" s="4">
         <v>0.36</v>
       </c>
-      <c r="B7" s="5">
+      <c r="C7" s="5">
         <f t="shared" si="0"/>
         <v>2.7777777777777777</v>
       </c>
-      <c r="C7" s="3">
+      <c r="D7" s="3">
         <v>361.38</v>
       </c>
+      <c r="E7" s="3">
+        <f t="shared" si="1"/>
+        <v>7.716049382716049</v>
+      </c>
+      <c r="F7" s="3">
+        <f t="shared" si="2"/>
+        <v>1003.8333333333333</v>
+      </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A8" s="4">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="B8" s="9">
         <v>0.31</v>
       </c>
-      <c r="B8" s="5">
+      <c r="C8" s="11">
         <f t="shared" si="0"/>
         <v>3.2258064516129035</v>
       </c>
-      <c r="C8" s="3">
+      <c r="D8" s="12">
         <v>419.4</v>
       </c>
+      <c r="E8" s="3">
+        <f t="shared" si="1"/>
+        <v>10.405827263267431</v>
+      </c>
+      <c r="F8" s="3">
+        <f t="shared" si="2"/>
+        <v>1352.9032258064517</v>
+      </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A9" s="1" t="s">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A9" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="4"/>
+      <c r="C9" s="5">
+        <f>SUM(C4:C8)</f>
+        <v>11.997439836149514</v>
+      </c>
+      <c r="D9" s="5">
+        <f>SUM(D4:D8)</f>
+        <v>1557.5900000000001</v>
+      </c>
+      <c r="E9" s="3">
+        <f>SUM(E4:E8)</f>
+        <v>30.392267702163153</v>
+      </c>
+      <c r="F9" s="3">
+        <f>SUM(F4:F8)</f>
+        <v>3946.8911213517667</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="B10" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A10" t="s">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="B11" t="s">
         <v>6</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C11" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A11">
-        <f t="array" ref="A11:B11">LINEST(C4:C8,B4:B8,TRUE)</f>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="B12">
+        <f t="array" ref="B12:C12">LINEST(D4:D8,C4:C8,TRUE)</f>
         <v>130.5487410952563</v>
       </c>
-      <c r="B11">
+      <c r="C12">
         <v>-1.7321333950794155</v>
       </c>
     </row>
@@ -3190,170 +3306,250 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="16.25" customWidth="1"/>
-    <col min="2" max="2" width="15.75" customWidth="1"/>
-    <col min="3" max="5" width="24.875" customWidth="1"/>
+    <col min="2" max="2" width="16.25" customWidth="1"/>
+    <col min="3" max="3" width="15.75" customWidth="1"/>
+    <col min="4" max="4" width="24.875" customWidth="1"/>
+    <col min="5" max="6" width="21.5" customWidth="1"/>
+    <col min="7" max="8" width="10.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="B1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="3">
+      <c r="C1" s="3">
         <v>0.62</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="B2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="C2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="D2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>9</v>
-      </c>
       <c r="E2" s="3" t="s">
-        <v>10</v>
+        <v>18</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2" s="13" t="s">
+        <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A3" s="4">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="B3" s="4">
         <v>0.9</v>
       </c>
-      <c r="B3" s="6">
-        <f>22.2*A3</f>
+      <c r="C3" s="6">
+        <f>22.2*B3</f>
         <v>19.98</v>
       </c>
-      <c r="C3" s="5">
-        <f>SQRT(B3)</f>
+      <c r="D3" s="5">
+        <f>SQRT(C3)</f>
         <v>4.4698993277254022</v>
       </c>
-      <c r="D3" s="3">
+      <c r="E3" s="3">
         <v>150.51</v>
       </c>
-      <c r="E3" s="5">
+      <c r="F3" s="5">
         <v>213.55</v>
       </c>
+      <c r="G3" s="3">
+        <f>E3*D3</f>
+        <v>672.76454781595021</v>
+      </c>
+      <c r="H3" s="3">
+        <f>F3*D3</f>
+        <v>954.54700143575974</v>
+      </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A4" s="4">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="B4" s="4">
         <v>1.35</v>
       </c>
-      <c r="B4" s="6">
-        <f t="shared" ref="B4:B7" si="0">22.2*A4</f>
+      <c r="C4" s="6">
+        <f t="shared" ref="C4:C7" si="0">22.2*B4</f>
         <v>29.970000000000002</v>
       </c>
-      <c r="C4" s="5">
-        <f t="shared" ref="C4:C7" si="1">SQRT(B4)</f>
+      <c r="D4" s="5">
+        <f t="shared" ref="D4:D8" si="1">SQRT(C4)</f>
         <v>5.4744862772683982</v>
       </c>
-      <c r="D4" s="3">
+      <c r="E4" s="3">
         <v>181.66</v>
       </c>
-      <c r="E4" s="5">
+      <c r="F4" s="5">
         <v>259.58</v>
       </c>
+      <c r="G4" s="3">
+        <f t="shared" ref="G4:G7" si="2">E4*D4</f>
+        <v>994.49517712857721</v>
+      </c>
+      <c r="H4" s="3">
+        <f t="shared" ref="H4:H7" si="3">F4*D4</f>
+        <v>1421.0671478533307</v>
+      </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A5" s="4">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="B5" s="4">
         <v>1.8</v>
       </c>
-      <c r="B5" s="6">
+      <c r="C5" s="6">
         <f t="shared" si="0"/>
         <v>39.96</v>
       </c>
-      <c r="C5" s="5">
+      <c r="D5" s="5">
         <f t="shared" si="1"/>
         <v>6.321392251711643</v>
       </c>
-      <c r="D5" s="3">
+      <c r="E5" s="3">
         <v>209.36</v>
       </c>
-      <c r="E5" s="5">
+      <c r="F5" s="5">
         <v>300.18</v>
       </c>
+      <c r="G5" s="3">
+        <f t="shared" si="2"/>
+        <v>1323.4466818183496</v>
+      </c>
+      <c r="H5" s="3">
+        <f t="shared" si="3"/>
+        <v>1897.555526118801</v>
+      </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A6" s="4">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="B6" s="4">
         <v>2.25</v>
       </c>
-      <c r="B6" s="6">
+      <c r="C6" s="6">
         <f t="shared" si="0"/>
         <v>49.949999999999996</v>
       </c>
-      <c r="C6" s="5">
+      <c r="D6" s="5">
         <f t="shared" si="1"/>
         <v>7.067531393633848</v>
       </c>
-      <c r="D6" s="3">
+      <c r="E6" s="3">
         <v>234.38</v>
       </c>
-      <c r="E6" s="5">
+      <c r="F6" s="5">
         <v>328.6</v>
       </c>
+      <c r="G6" s="3">
+        <f t="shared" si="2"/>
+        <v>1656.4880080399012</v>
+      </c>
+      <c r="H6" s="3">
+        <f t="shared" si="3"/>
+        <v>2322.3908159480825</v>
+      </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A7" s="4">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="B7" s="9">
         <v>2.7</v>
       </c>
-      <c r="B7" s="6">
+      <c r="C7" s="10">
         <f t="shared" si="0"/>
         <v>59.940000000000005</v>
       </c>
-      <c r="C7" s="5">
+      <c r="D7" s="11">
         <f t="shared" si="1"/>
         <v>7.7420927403383644</v>
       </c>
-      <c r="D7" s="3">
+      <c r="E7" s="12">
         <v>256.24</v>
       </c>
-      <c r="E7" s="5">
+      <c r="F7" s="11">
         <v>364.34</v>
       </c>
+      <c r="G7" s="3">
+        <f t="shared" si="2"/>
+        <v>1983.8338437843026</v>
+      </c>
+      <c r="H7" s="3">
+        <f t="shared" si="3"/>
+        <v>2820.7540690148794</v>
+      </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="B8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" t="s">
-        <v>14</v>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A8" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="4"/>
+      <c r="C8" s="6">
+        <f>SUM(C3:C7)</f>
+        <v>199.79999999999998</v>
+      </c>
+      <c r="D8" s="5">
+        <f>SUM(D3:D7)</f>
+        <v>31.075401990677655</v>
+      </c>
+      <c r="E8" s="3">
+        <f>SUM(E3:E7)</f>
+        <v>1032.1500000000001</v>
+      </c>
+      <c r="F8" s="5">
+        <f>SUM(F3:F7)</f>
+        <v>1466.2499999999998</v>
+      </c>
+      <c r="G8" s="3">
+        <f>SUM(G3:G7)</f>
+        <v>6631.0282585870809</v>
+      </c>
+      <c r="H8" s="3">
+        <f>SUM(H3:H7)</f>
+        <v>9416.3145603708526</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A9" t="s">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C9" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="7">
-        <f t="array" ref="B9:C9">LINEST(D3:D7,C3:C7,TRUE)</f>
+      <c r="D9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="7">
+        <f t="array" ref="C10:D10">LINEST(E3:E7,D3:D7,TRUE)</f>
         <v>32.433519701401714</v>
       </c>
-      <c r="C9" s="2">
+      <c r="D10" s="2">
         <v>4.853067461275657</v>
       </c>
+      <c r="E10" s="7"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A10" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" s="7">
-        <f t="array" ref="B10:C10">LINEST(E3:E7,C3:C7,TRUE)</f>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="B11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="7">
+        <f t="array" ref="C11:D11">LINEST(F3:F7,D3:D7,TRUE)</f>
         <v>45.536985584744905</v>
       </c>
-      <c r="C10" s="7">
+      <c r="D11" s="7">
         <v>10.233973502071649</v>
       </c>
+      <c r="E11" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -3366,8 +3562,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -3378,28 +3574,28 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B1" s="8">
-        <f>図3!B2/4/POWER(図3!A11,2)</f>
+        <f>図3!C2/4/POWER(図3!B12,2)</f>
         <v>5.867520607868834E-4</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B2" s="8">
-        <f>POWER(1/図4!B9/2/図4!B1,2)</f>
+        <f>POWER(1/図4!C10/2/図4!C1,2)</f>
         <v>6.18256181873001E-4</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B3" s="8">
-        <f>POWER(1/2/図4!B10/図4!B1,2)</f>
+        <f>POWER(1/2/図4!C11/図4!C1,2)</f>
         <v>3.1363756486610118E-4</v>
       </c>
     </row>
